--- a/Assessments/Unit4/4.2.4/ChrisCare.xlsx
+++ b/Assessments/Unit4/4.2.4/ChrisCare.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://strategicedinc-my.sharepoint.com/personal/melissa_estremera_sophia_org/Documents/Documents/BDA/BDA_Excel/Assessments/Unit4/4.2.4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9BBBCF86-AC3B-499F-BA51-E635F2C0BE75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{D1756D6A-5356-4FBF-9EFF-50B38A3AFFB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{02067AE7-1CEB-4E40-86F2-1FBDD7D7BC22}"/>
   </bookViews>
@@ -433,7 +433,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -490,11 +490,15 @@
       <c r="A7" s="2">
         <v>45748</v>
       </c>
-      <c r="B7" s="3">
-        <v>1600</v>
-      </c>
+      <c r="B7" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{7f03627e-adeb-48d8-ae7e-238ae8a0adc7}" enabled="0" method="" siteId="{7f03627e-adeb-48d8-ae7e-238ae8a0adc7}" removed="1"/>
+</clbl:labelList>
 </file>
--- a/Assessments/Unit4/4.2.4/ChrisCare.xlsx
+++ b/Assessments/Unit4/4.2.4/ChrisCare.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://strategicedinc-my.sharepoint.com/personal/melissa_estremera_sophia_org/Documents/Documents/BDA/BDA_Excel/Assessments/Unit4/4.2.4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{D1756D6A-5356-4FBF-9EFF-50B38A3AFFB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{F3954AB0-DE69-4770-903D-D2A8F3FA489B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{02067AE7-1CEB-4E40-86F2-1FBDD7D7BC22}"/>
   </bookViews>
@@ -433,7 +433,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Assessments/Unit4/4.2.4/ChrisCare.xlsx
+++ b/Assessments/Unit4/4.2.4/ChrisCare.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://strategicedinc-my.sharepoint.com/personal/melissa_estremera_sophia_org/Documents/Documents/BDA/BDA_Excel/Assessments/Unit4/4.2.4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{F3954AB0-DE69-4770-903D-D2A8F3FA489B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="14_{F3954AB0-DE69-4770-903D-D2A8F3FA489B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E86440E1-0B0F-492E-AD70-0D5B0FFA9EA3}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{02067AE7-1CEB-4E40-86F2-1FBDD7D7BC22}"/>
   </bookViews>
@@ -48,6 +48,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="[$-409]mmm\-yy;@"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -85,7 +88,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -96,6 +99,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -430,13 +434,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2BF52C4-6E8A-41FB-8C2C-15D4188E326B}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.08984375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
@@ -490,7 +497,14 @@
       <c r="A7" s="2">
         <v>45748</v>
       </c>
-      <c r="B7" s="3"/>
+      <c r="B7" s="3">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="4">
+        <v>45802</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assessments/Unit4/4.2.4/ChrisCare.xlsx
+++ b/Assessments/Unit4/4.2.4/ChrisCare.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://strategicedinc-my.sharepoint.com/personal/melissa_estremera_sophia_org/Documents/Documents/BDA/BDA_Excel/Assessments/Unit4/4.2.4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="14_{F3954AB0-DE69-4770-903D-D2A8F3FA489B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E86440E1-0B0F-492E-AD70-0D5B0FFA9EA3}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{C47A9297-0C56-47B7-A501-26D69EEC1990}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{02067AE7-1CEB-4E40-86F2-1FBDD7D7BC22}"/>
   </bookViews>
@@ -49,7 +49,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="[$-409]mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]mmm\-yy;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -99,7 +99,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -115,6 +115,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -437,7 +441,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -498,7 +502,7 @@
         <v>45748</v>
       </c>
       <c r="B7" s="3">
-        <v>1600</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">

--- a/Assessments/Unit4/4.2.4/ChrisCare.xlsx
+++ b/Assessments/Unit4/4.2.4/ChrisCare.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://strategicedinc-my.sharepoint.com/personal/melissa_estremera_sophia_org/Documents/Documents/BDA/BDA_Excel/Assessments/Unit4/4.2.4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{C47A9297-0C56-47B7-A501-26D69EEC1990}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="14_{C47A9297-0C56-47B7-A501-26D69EEC1990}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9B14AA6D-63FD-4FBB-8A4A-EAEC3405F5BD}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{02067AE7-1CEB-4E40-86F2-1FBDD7D7BC22}"/>
   </bookViews>
@@ -115,10 +115,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -438,10 +434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2BF52C4-6E8A-41FB-8C2C-15D4188E326B}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -459,54 +455,94 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
-        <v>45597</v>
+        <v>45444</v>
       </c>
       <c r="B2" s="3">
-        <v>1200</v>
+        <v>800</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
-        <v>45627</v>
+        <v>45474</v>
       </c>
       <c r="B3" s="3">
-        <v>1350</v>
+        <v>700</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
-        <v>45658</v>
+        <v>45505</v>
       </c>
       <c r="B4" s="3">
-        <v>1400</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
-        <v>45689</v>
+        <v>45536</v>
       </c>
       <c r="B5" s="3">
-        <v>1300</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
-        <v>45717</v>
+        <v>45566</v>
       </c>
       <c r="B6" s="3">
-        <v>1500</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
+        <v>45597</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="2">
+        <v>45627</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="2">
+        <v>45658</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="2">
+        <v>45689</v>
+      </c>
+      <c r="B10" s="3">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="2">
+        <v>45717</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="2">
         <v>45748</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B12" s="3">
         <v>1550</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="4">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="4">
         <v>45802</v>
       </c>
     </row>

--- a/Assessments/Unit4/4.2.4/ChrisCare.xlsx
+++ b/Assessments/Unit4/4.2.4/ChrisCare.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://strategicedinc-my.sharepoint.com/personal/melissa_estremera_sophia_org/Documents/Documents/BDA/BDA_Excel/Assessments/Unit4/4.2.4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="14_{C47A9297-0C56-47B7-A501-26D69EEC1990}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9B14AA6D-63FD-4FBB-8A4A-EAEC3405F5BD}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{A9E89069-081E-48E6-93B0-96320C95488B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{02067AE7-1CEB-4E40-86F2-1FBDD7D7BC22}"/>
   </bookViews>
@@ -115,6 +115,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
